--- a/biology/Médecine/Jules_Le_Baron/Jules_Le_Baron.xlsx
+++ b/biology/Médecine/Jules_Le_Baron/Jules_Le_Baron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Proper Le Baron, né le 23 février 1855 à Blaison (Maine-et-Loire) et mort à Paris le 2 janvier 1902, est un médecin et anthropologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Origines et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Blaison en Anjou, il est le fils de Pierre-Joseph Le Baron de Blaison et de Jeanne-Perrine-Julienne-Suzanne Le Baron de Segré, cousins issus d'une ancienne famille de la bourgeoisie rurale originaire du village de Vengeons en Normandie.
 Jeune bachelier, il s'inscrit à l’École de médecine d'Angers où il est l'élève du docteur Farges, avant de rejoindre la Faculté de médecine de Paris où il suit notamment les cours d'anthropologie préhistorique de Gabriel de Mortillet.
@@ -544,7 +558,9 @@
           <t>Carrière médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Président-fondateur en 1891 du Syndicat des médecins de la Seine, organisation qui devient très rapidement le principal représentant des médecins en France, il se distingue particulièrement dans la défense de sa profession. 
 Ainsi, alors que l'ancienne École de médecine, rue de la Bûcherie, est vouée à la destruction, il œuvre efficacement auprès des médecins et des pouvoirs publics pour sa sauvegarde. Le docteur Le Baron défend l'idée de la création d'un musée de l'Histoire de la Médecine dans le cadre même de la Faculté de Médecine de l'Ancien Régime, et c'est dans ce but que le Conseil Municipal de Paris l'acquiert en 1896. La disparition prématurée du docteur Le Baron en 1902 empêche la réalisation de ce projet, et l'Ancienne École de médecine vit encore bien des vicissitudes avant d'être définitivement sauvée.
@@ -578,7 +594,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il épouse en Alice Deleau de Vézelise, fille de Léon Deleau, docteur en médecine et maire de Larchant, et petite-fille du docteur Nicolas Deleau, célèbre médecin du XIXe siècle. Leur fille aînée, Jehanne, épouse Gaston Renaud, licencié en droit et avocat, dont descendance.
 Un haut-relief du docteur Le Baron, par le sculpteur Justin-Chrysostome Sanson, exposé au Salon de 1902, est inauguré le 25 janvier 1903, au siège du Syndicat des médecins de la Seine.
@@ -610,7 +628,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lésions osseuses de l'homme préhistorique en France et en Algérie, Paris, 1881
 Projet de restitution et d'utilisation de l'ancienne Faculté de médecine de Paris, rue de la Bûcherie, sd</t>
